--- a/00 Tổng kết/Điểm danh (Tổng kết vào cuối tháng).xlsx
+++ b/00 Tổng kết/Điểm danh (Tổng kết vào cuối tháng).xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\WEB\00 Tổng kết\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9FAFE-038B-4EFE-BF39-95270435F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68BA741-90AF-4DF3-8153-70666D04DDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Điểm danh" sheetId="1" r:id="rId1"/>
-    <sheet name="Json" sheetId="4" r:id="rId2"/>
-    <sheet name="Nghỉ" sheetId="3" r:id="rId3"/>
+    <sheet name="Nghỉ" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -291,19 +290,10 @@
     <t>Zalo</t>
   </si>
   <si>
-    <t>Một trăm nghìn đồng chẵn</t>
-  </si>
-  <si>
     <t>Hai trăm nghìn đồng chẵn</t>
   </si>
   <si>
-    <t>Bốn trăm năm mươi nghìn đồng chẵn</t>
-  </si>
-  <si>
     <t>Bốn trăm nghìn đồng chẵn</t>
-  </si>
-  <si>
-    <t>Ba trăm nghìn đồng chẵn</t>
   </si>
   <si>
     <t>id</t>
@@ -336,34 +326,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>100901</t>
+    <t>Bảy trăm năm mươi nghìn đồng chẵn</t>
   </si>
   <si>
-    <t xml:space="preserve">        9                       </t>
-  </si>
-  <si>
-    <t>100902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        9    13                   </t>
-  </si>
-  <si>
-    <t>101203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8   11    15                 </t>
-  </si>
-  <si>
-    <t>101004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8 9   12  14                  </t>
-  </si>
-  <si>
-    <t>100905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        9    13  15                 </t>
+    <t>Sáu trăm nghìn đồng chẵn</t>
   </si>
 </sst>
 </file>
@@ -773,6 +739,9 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -780,9 +749,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,7 +988,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1001,7 @@
     <col min="6" max="6" width="7" style="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.69921875" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="51" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.8984375" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.796875" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.59765625" style="37" bestFit="1" customWidth="1"/>
@@ -1058,34 +1024,34 @@
   <sheetData>
     <row r="1" spans="1:46" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1096,40 +1062,40 @@
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="60" t="str">
+      <c r="N1" s="61" t="str">
         <f>"Danh sách học"&amp;" "&amp;A20&amp;"/"&amp;A21</f>
         <v>Danh sách học 2/2025</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
       <c r="AS1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1119,7 @@
       </c>
       <c r="E2" s="30" t="str">
         <f>N2&amp;" "&amp;O2&amp;" "&amp;P2&amp;" "&amp;Q2&amp;" "&amp;R2&amp;" "&amp;S2&amp;" "&amp;T2&amp;" "&amp;U2&amp;" "&amp;V2&amp;" "&amp;W2&amp;" "&amp;X2&amp;" "&amp;Y2&amp;" "&amp;Z2&amp;" "&amp;AA2&amp;" "&amp;AB2&amp;" "&amp;AC2&amp;" "&amp;AD2&amp;" "&amp;AE2&amp;" "&amp;AF2&amp;" "&amp;AG2&amp;" "&amp;AH2&amp;" "&amp;AI2&amp;" "&amp;AJ2&amp;" "&amp;AK2&amp;" "&amp;AL2&amp;" "&amp;AM2&amp;" "&amp;AN2&amp;" "&amp;AO2&amp;" "&amp;AP2&amp;" "&amp;AQ2&amp;" "&amp;AR2&amp;" "</f>
-        <v xml:space="preserve">        9       16       23         </v>
+        <v xml:space="preserve">        9       16       23    27     </v>
       </c>
       <c r="F2" s="31">
         <v>100000</v>
@@ -1163,12 +1129,14 @@
       </c>
       <c r="H2" s="33">
         <f>AS2*F2-G2</f>
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="J2" s="56"/>
+      <c r="J2" s="56">
+        <v>123456</v>
+      </c>
       <c r="K2" s="25">
         <v>2009</v>
       </c>
@@ -1210,18 +1178,20 @@
       <c r="AK2" s="28"/>
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
+      <c r="AN2" s="28">
+        <v>27</v>
+      </c>
       <c r="AO2" s="28"/>
       <c r="AP2" s="28"/>
       <c r="AQ2" s="28"/>
       <c r="AR2" s="28"/>
       <c r="AS2" s="32">
         <f>COUNT(N2:AR2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT2" s="59" t="str">
         <f>"Cháu gửi phụ huynh thông báo thu tiền học phí của em "&amp;B2&amp;" tháng "&amp;$A$20&amp;"/"&amp;$A$21&amp;" ạ." &amp;" Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/"&amp;" để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: "&amp;J2 &amp;". Trân trọng!"</f>
-        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Vũ Văn Tiến tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Vũ Văn Tiến tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: 123456. Trân trọng!</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -1252,8 +1222,12 @@
         <f>AS3*F3-G3</f>
         <v>400000</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
+      <c r="I3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="56">
+        <v>654321</v>
+      </c>
       <c r="K3" s="25">
         <v>2009</v>
       </c>
@@ -1308,7 +1282,7 @@
       </c>
       <c r="AT3" s="59" t="str">
         <f>"Cháu gửi phụ huynh thông báo thu tiền học phí của em "&amp;B3&amp;" tháng "&amp;$A$20&amp;"/"&amp;$A$21&amp;" ạ." &amp;" Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/"&amp;" để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: "&amp;J3 &amp;". Trân trọng!"</f>
-        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Tạ Tiến Minh tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Tạ Tiến Minh tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: 654321. Trân trọng!</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -1327,7 +1301,7 @@
       </c>
       <c r="E4" s="30" t="str">
         <f>N4&amp;" "&amp;O4&amp;" "&amp;P4&amp;" "&amp;Q4&amp;" "&amp;R4&amp;" "&amp;S4&amp;" "&amp;T4&amp;" "&amp;U4&amp;" "&amp;V4&amp;" "&amp;W4&amp;" "&amp;X4&amp;" "&amp;Y4&amp;" "&amp;Z4&amp;" "&amp;AA4&amp;" "&amp;AB4&amp;" "&amp;AC4&amp;" "&amp;AD4&amp;" "&amp;AE4&amp;" "&amp;AF4&amp;" "&amp;AG4&amp;" "&amp;AH4&amp;" "&amp;AI4&amp;" "&amp;AJ4&amp;" "&amp;AK4&amp;" "&amp;AL4&amp;" "&amp;AM4&amp;" "&amp;AN4&amp;" "&amp;AO4&amp;" "&amp;AP4&amp;" "&amp;AQ4&amp;" "&amp;AR4&amp;" "</f>
-        <v xml:space="preserve">       8   11    15       22          </v>
+        <v xml:space="preserve">       8   11    15       22   25       </v>
       </c>
       <c r="F4" s="31">
         <v>150000</v>
@@ -1337,10 +1311,14 @@
       </c>
       <c r="H4" s="33">
         <f>AS4*F4-G4</f>
-        <v>600000</v>
+        <v>750000</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="56">
+        <v>234567</v>
+      </c>
       <c r="K4" s="25">
         <v>2012</v>
       </c>
@@ -1382,7 +1360,9 @@
       </c>
       <c r="AJ4" s="28"/>
       <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
+      <c r="AL4" s="28">
+        <v>25</v>
+      </c>
       <c r="AM4" s="28"/>
       <c r="AN4" s="28"/>
       <c r="AO4" s="28"/>
@@ -1391,11 +1371,11 @@
       <c r="AR4" s="28"/>
       <c r="AS4" s="32">
         <f>COUNT(N4:AR4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT4" s="59" t="str">
         <f>"Cháu gửi phụ huynh thông báo thu tiền học phí của em "&amp;B4&amp;" tháng "&amp;$A$20&amp;"/"&amp;$A$21&amp;" ạ." &amp;" Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/"&amp;" để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: "&amp;J4 &amp;". Trân trọng!"</f>
-        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Lê Trần Bảo Lộc tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Lê Trần Bảo Lộc tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: 234567. Trân trọng!</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -1414,20 +1394,24 @@
       </c>
       <c r="E5" s="30" t="str">
         <f>N5&amp;" "&amp;O5&amp;" "&amp;P5&amp;" "&amp;Q5&amp;" "&amp;R5&amp;" "&amp;S5&amp;" "&amp;T5&amp;" "&amp;U5&amp;" "&amp;V5&amp;" "&amp;W5&amp;" "&amp;X5&amp;" "&amp;Y5&amp;" "&amp;Z5&amp;" "&amp;AA5&amp;" "&amp;AB5&amp;" "&amp;AC5&amp;" "&amp;AD5&amp;" "&amp;AE5&amp;" "&amp;AF5&amp;" "&amp;AG5&amp;" "&amp;AH5&amp;" "&amp;AI5&amp;" "&amp;AJ5&amp;" "&amp;AK5&amp;" "&amp;AL5&amp;" "&amp;AM5&amp;" "&amp;AN5&amp;" "&amp;AO5&amp;" "&amp;AP5&amp;" "&amp;AQ5&amp;" "&amp;AR5&amp;" "</f>
-        <v xml:space="preserve">       8 9   12  14  16 17  19   22 23         </v>
+        <v xml:space="preserve">       8 9   12  14  16 17  19   22 23 24  26  28    </v>
       </c>
       <c r="F5" s="31">
         <v>100000</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="60">
         <v>1000000</v>
       </c>
       <c r="H5" s="33">
         <f>AS5*F5-G5</f>
-        <v>-100000</v>
+        <v>200000</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
+      <c r="I5" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="56">
+        <v>765432</v>
+      </c>
       <c r="K5" s="25">
         <v>2010</v>
       </c>
@@ -1478,21 +1462,27 @@
       <c r="AJ5" s="28">
         <v>23</v>
       </c>
-      <c r="AK5" s="28"/>
+      <c r="AK5" s="28">
+        <v>24</v>
+      </c>
       <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
+      <c r="AM5" s="28">
+        <v>26</v>
+      </c>
       <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
+      <c r="AO5" s="28">
+        <v>28</v>
+      </c>
       <c r="AP5" s="28"/>
       <c r="AQ5" s="28"/>
       <c r="AR5" s="28"/>
       <c r="AS5" s="32">
         <f>COUNT(N5:AR5)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT5" s="59" t="str">
         <f>"Cháu gửi phụ huynh thông báo thu tiền học phí của em "&amp;B5&amp;" tháng "&amp;$A$20&amp;"/"&amp;$A$21&amp;" ạ." &amp;" Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/"&amp;" để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: "&amp;J5 &amp;". Trân trọng!"</f>
-        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Đặng Đức Mạnh tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Đặng Đức Mạnh tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: 765432. Trân trọng!</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -1523,8 +1513,12 @@
         <f>AS6*F6-G6</f>
         <v>600000</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
+      <c r="I6" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="56">
+        <v>345678</v>
+      </c>
       <c r="K6" s="25">
         <v>2009</v>
       </c>
@@ -1583,7 +1577,7 @@
       </c>
       <c r="AT6" s="59" t="str">
         <f>"Cháu gửi phụ huynh thông báo thu tiền học phí của em "&amp;B6&amp;" tháng "&amp;$A$20&amp;"/"&amp;$A$21&amp;" ạ." &amp;" Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/"&amp;" để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: "&amp;J6 &amp;". Trân trọng!"</f>
-        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Khổng Minh Đăng tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Khổng Minh Đăng tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: 345678. Trân trọng!</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -41983,230 +41977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC6F369-9852-40A3-8BE5-F2125B7CA786}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2025</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2">
-        <v>100000</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>100000</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2025</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3">
-        <v>100000</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>200000</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3">
-        <v>234567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2025</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4">
-        <v>150000</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>450000</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4">
-        <v>345678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2025</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5">
-        <v>100000</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>400000</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5">
-        <v>456789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2025</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6">
-        <v>100000</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>300000</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6">
-        <v>567890</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9C46E9-8712-4DCF-AB81-74C6CED0D6F5}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
